--- a/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FACULTATE\Semestrul6\Verificare_si_validarea_sistemelor_soft\03_PizzaShop\03_PizzaShop\Docs\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A44C0F-502D-4FF6-AEEE-2555A0C7FC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7179A-D347-4BB2-A2EA-A01C0977E3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>do not print this form</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Executable</t>
   </si>
   <si>
-    <t>1,3</t>
-  </si>
-  <si>
     <t>Masa e de la 1-8 si valoarea achitata &gt; 0.</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t xml:space="preserve">  error</t>
   </si>
   <si>
-    <t>2,3</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>BVA TCs</t>
   </si>
   <si>
-    <t>table is 1</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
@@ -269,9 +260,6 @@
   </si>
   <si>
     <t>TC8_BVA</t>
-  </si>
-  <si>
-    <t>TC9_BVA</t>
   </si>
   <si>
     <t>Statistics</t>
@@ -321,9 +309,6 @@
     <t>Req01</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Lab02. Black-box Testing. ECP, BVA</t>
   </si>
   <si>
@@ -361,15 +346,6 @@
   </si>
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
-  </si>
-  <si>
-    <t>table is -1</t>
-  </si>
-  <si>
-    <t>ammount is 10</t>
-  </si>
-  <si>
-    <t>ammount is -10</t>
   </si>
   <si>
     <t>tableNumber is 2</t>
@@ -472,6 +448,48 @@
       </rPr>
       <t>passed</t>
     </r>
+  </si>
+  <si>
+    <t>public void add(Payment payment){</t>
+  </si>
+  <si>
+    <t>table is 1-8</t>
+  </si>
+  <si>
+    <t>table is &gt;8</t>
+  </si>
+  <si>
+    <t>table is &lt;1</t>
+  </si>
+  <si>
+    <t>ammount &gt;0</t>
+  </si>
+  <si>
+    <t>ammount is &lt;=0</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>tableNumber is 8</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Payment added</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -692,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1090,12 +1108,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1217,12 +1248,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,6 +1265,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,10 +1282,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,55 +1338,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -1332,29 +1357,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1362,40 +1400,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1619,8 +1658,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A8" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,20 +1678,20 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" s="69" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
       <c r="F1" s="71"/>
       <c r="H1" s="53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I1" s="53"/>
       <c r="J1" s="53"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H2" s="72" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
@@ -1660,18 +1699,18 @@
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="51"/>
       <c r="I3" s="51" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H4" s="51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J4" s="51">
         <v>236</v>
@@ -1679,10 +1718,10 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H5" s="51" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J5" s="51">
         <v>236</v>
@@ -1691,10 +1730,10 @@
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="52"/>
       <c r="H6" s="51" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J6" s="51">
         <v>236</v>
@@ -1703,12 +1742,12 @@
     <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="50" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1751,19 +1790,20 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="50" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="48"/>
@@ -1835,10 +1875,10 @@
   <sheetPr>
     <tabColor rgb="FFFFCC99"/>
   </sheetPr>
-  <dimension ref="B1:L1000"/>
+  <dimension ref="B1:L1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1862,40 +1902,40 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="83"/>
+      <c r="D1" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="83"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="83"/>
-      <c r="G5" s="91" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="74"/>
+      <c r="G5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="83"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="74"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1910,267 +1950,292 @@
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84" t="s">
+      <c r="J6" s="74"/>
+      <c r="K6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="74"/>
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
-        <v>10</v>
-      </c>
-      <c r="K8" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="83"/>
-    </row>
-    <row r="9" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="132"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="67"/>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>3</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="I9" s="12">
         <v>1</v>
       </c>
       <c r="J9" s="12">
-        <v>-10</v>
-      </c>
-      <c r="K9" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="83"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="C10" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>-10</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="10">
         <v>3</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="H11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="13">
+        <v>9</v>
+      </c>
+      <c r="J11" s="13">
         <v>10</v>
       </c>
-      <c r="K10" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="83"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="83"/>
-    </row>
-    <row r="12" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="74"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="74"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="83"/>
+      <c r="G12" s="10">
+        <v>4</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="13">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>2</v>
+      </c>
+      <c r="K12" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="73"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="83"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="74"/>
     </row>
     <row r="14" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="74"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="75"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="74"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="G16" s="21"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="74"/>
     </row>
     <row r="17" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="75"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="G17" s="21"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="18" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="74"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="G18" s="21"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="75"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="74"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-    </row>
+      <c r="G20" s="3"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="74"/>
+    </row>
+    <row r="21" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="80"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="D23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
     </row>
     <row r="24" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="81"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-    </row>
-    <row r="25" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+    </row>
+    <row r="25" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="94"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+    </row>
     <row r="26" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3146,10 +3211,27 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="G5:L5"/>
@@ -3158,28 +3240,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3193,8 +3259,8 @@
   </sheetPr>
   <dimension ref="B1:N995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3224,12 +3290,12 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="D1" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
     </row>
     <row r="2" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3250,18 +3316,18 @@
       <c r="B5" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="83"/>
-      <c r="G5" s="91" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="74"/>
+      <c r="G5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="83"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="74"/>
     </row>
     <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -3273,60 +3339,60 @@
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="99" t="s">
+      <c r="H6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="97" t="s">
+      <c r="L6" s="74"/>
+      <c r="M6" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="83"/>
+      <c r="N6" s="74"/>
     </row>
     <row r="7" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="75">
+      <c r="B7" s="88">
         <v>1</v>
       </c>
-      <c r="C7" s="105" t="s">
-        <v>94</v>
+      <c r="C7" s="96" t="s">
+        <v>86</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="83"/>
+        <v>32</v>
+      </c>
+      <c r="M7" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="74"/>
     </row>
     <row r="8" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="56" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E8" s="18">
         <v>2</v>
@@ -3345,16 +3411,16 @@
       <c r="L8" s="20">
         <v>2</v>
       </c>
-      <c r="M8" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="83"/>
+      <c r="M8" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="74"/>
     </row>
     <row r="9" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E9" s="18">
         <v>3</v>
@@ -3373,16 +3439,16 @@
       <c r="L9" s="20">
         <v>2</v>
       </c>
-      <c r="M9" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="83"/>
+      <c r="M9" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="74"/>
     </row>
     <row r="10" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="56" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E10" s="18">
         <v>4</v>
@@ -3401,16 +3467,16 @@
       <c r="L10" s="20">
         <v>2</v>
       </c>
-      <c r="M10" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="83"/>
+      <c r="M10" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="74"/>
     </row>
     <row r="11" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="56" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E11" s="18">
         <v>5</v>
@@ -3429,16 +3495,16 @@
       <c r="L11" s="20">
         <v>2</v>
       </c>
-      <c r="M11" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="83"/>
+      <c r="M11" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="74"/>
     </row>
     <row r="12" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="56" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E12" s="18">
         <v>6</v>
@@ -3457,20 +3523,20 @@
       <c r="L12" s="20">
         <v>2</v>
       </c>
-      <c r="M12" s="95" t="s">
+      <c r="M12" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="74"/>
+    </row>
+    <row r="13" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="88">
+        <v>2</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="83"/>
-    </row>
-    <row r="13" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75">
-        <v>2</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="18">
         <v>7</v>
@@ -3484,21 +3550,21 @@
       <c r="I13" s="20"/>
       <c r="J13" s="8"/>
       <c r="K13" s="20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L13" s="20">
         <v>2</v>
       </c>
-      <c r="M13" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="83"/>
+      <c r="M13" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="74"/>
     </row>
     <row r="14" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="18">
         <v>8</v>
@@ -3517,16 +3583,16 @@
       <c r="L14" s="20">
         <v>2</v>
       </c>
-      <c r="M14" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="83"/>
+      <c r="M14" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="74"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15" s="18">
         <v>9</v>
@@ -3545,10 +3611,10 @@
       <c r="L15" s="20">
         <v>0</v>
       </c>
-      <c r="M15" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="83"/>
+      <c r="M15" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="74"/>
     </row>
     <row r="16" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="20">
@@ -3565,10 +3631,10 @@
       <c r="L16" s="20">
         <v>1</v>
       </c>
-      <c r="M16" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="83"/>
+      <c r="M16" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="74"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4551,6 +4617,14 @@
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B7:B12"/>
@@ -4567,14 +4641,6 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4586,10 +4652,10 @@
   <sheetPr>
     <tabColor rgb="FF666699"/>
   </sheetPr>
-  <dimension ref="A1:P1005"/>
+  <dimension ref="A1:P1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4609,75 +4675,75 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="83"/>
+      <c r="D1" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="83"/>
-    </row>
-    <row r="4" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="123" t="s">
+      <c r="D4" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="E4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="F4" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="74"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="117"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="G5" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="83"/>
-    </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="124"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="119" t="s">
-        <v>46</v>
+      <c r="C6" s="113" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="28">
@@ -4687,10 +4753,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4698,9 +4764,9 @@
         <f t="shared" ref="B7:B8" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="120"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="30">
@@ -4710,10 +4776,10 @@
         <v>14</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I7" s="133" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4721,9 +4787,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="120"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="31">
@@ -4733,32 +4799,32 @@
         <v>15</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="I8" s="134" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="62">
+      <c r="C9" s="114"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="60">
         <v>2</v>
       </c>
       <c r="G9" s="19">
         <v>2</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I9" s="135" t="s">
+        <v>27</v>
       </c>
       <c r="O9" s="32"/>
     </row>
@@ -4766,22 +4832,22 @@
       <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="62">
-        <v>0</v>
+      <c r="C10" s="114"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="60">
+        <v>-1</v>
       </c>
       <c r="G10" s="19">
         <v>2</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="I10" s="135" t="s">
+        <v>31</v>
       </c>
       <c r="O10" s="32"/>
     </row>
@@ -4790,22 +4856,22 @@
         <f t="shared" ref="B11:B13" si="1">B10+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="62">
-        <v>7</v>
+      <c r="C11" s="114"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="60">
+        <v>1</v>
       </c>
       <c r="G11" s="19">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="59" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="I11" s="135" t="s">
+        <v>31</v>
       </c>
       <c r="O11" s="32"/>
     </row>
@@ -4814,22 +4880,22 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="62">
-        <v>9</v>
+      <c r="C12" s="114"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="60">
+        <v>2</v>
       </c>
       <c r="G12" s="19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>28</v>
+        <v>107</v>
+      </c>
+      <c r="I12" s="135" t="s">
+        <v>27</v>
       </c>
       <c r="O12" s="32"/>
     </row>
@@ -4838,22 +4904,22 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="62">
+      <c r="C13" s="114"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="60">
         <v>1</v>
       </c>
       <c r="G13" s="19">
         <v>2</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I13" s="135" t="s">
+        <v>27</v>
       </c>
       <c r="O13" s="32"/>
     </row>
@@ -4861,93 +4927,80 @@
       <c r="B14" s="10">
         <v>9</v>
       </c>
-      <c r="C14" s="120"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="62">
+      <c r="E14" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="60">
         <v>8</v>
       </c>
       <c r="G14" s="19">
         <v>2</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I14" s="135" t="s">
+        <v>27</v>
       </c>
       <c r="O14" s="32"/>
     </row>
     <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
+        <v>11</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
         <v>10</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="62">
-        <v>2</v>
-      </c>
-      <c r="G15" s="19">
-        <v>2</v>
-      </c>
       <c r="H15" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="59" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="I15" s="135" t="s">
+        <v>31</v>
       </c>
       <c r="O15" s="32"/>
     </row>
     <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
-        <v>11</v>
-      </c>
-      <c r="C16" s="120"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="107"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="62">
-        <v>2</v>
+      <c r="E16" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="60">
+        <v>9</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="59" t="s">
-        <v>28</v>
+        <v>106</v>
+      </c>
+      <c r="I16" s="135" t="s">
+        <v>106</v>
       </c>
       <c r="O16" s="32"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
-        <v>12</v>
-      </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="62">
-        <v>2</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
@@ -4959,181 +5012,171 @@
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+      <c r="C21" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="131" t="s">
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="37" t="s">
+      <c r="H22" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="131" t="s">
+      <c r="I22" s="124"/>
+      <c r="J22" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="131" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
+      <c r="O22" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="127" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
-      <c r="B23" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="115" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="128"/>
-      <c r="J23" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" s="116" t="s">
-        <v>98</v>
-      </c>
-      <c r="M23" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="N23" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="P23" s="108" t="s">
-        <v>101</v>
-      </c>
+      <c r="B23" s="110"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="128"/>
     </row>
     <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="109"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="40">
-        <v>12</v>
-      </c>
-      <c r="D25" s="41">
-        <v>8</v>
-      </c>
-      <c r="E25" s="41">
-        <v>4</v>
-      </c>
-      <c r="F25" s="42">
+      <c r="B24" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="40">
+        <v>11</v>
+      </c>
+      <c r="D24" s="41">
+        <v>11</v>
+      </c>
+      <c r="E24" s="41">
         <v>0</v>
       </c>
-      <c r="G25" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="112"/>
-      <c r="J25" s="40">
-        <v>4</v>
-      </c>
-      <c r="K25" s="41">
-        <v>4</v>
-      </c>
-      <c r="L25" s="42">
+      <c r="F24" s="42">
         <v>0</v>
       </c>
-      <c r="M25" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="N25" s="42">
-        <f>D25</f>
-        <v>8</v>
-      </c>
-      <c r="O25" s="67">
-        <v>5</v>
-      </c>
-      <c r="P25" s="66">
+      <c r="G24" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="110"/>
+      <c r="J24" s="40">
         <v>0</v>
       </c>
-    </row>
+      <c r="K24" s="41">
+        <v>0</v>
+      </c>
+      <c r="L24" s="42">
+        <v>0</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6113,16 +6156,18 @@
     <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="C6:C16"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:B5"/>
@@ -6130,20 +6175,17 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
